--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ип\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Тариф, руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
     <t>Сумма, руб./кв.м.</t>
   </si>
   <si>
@@ -158,19 +155,25 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>максимальная сумма к оплате, дней</t>
-  </si>
-  <si>
     <t>Куропаткин 2</t>
   </si>
   <si>
     <t>Исламов</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма просрочки, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -555,25 +558,25 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>100</v>
       </c>
@@ -589,7 +592,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -603,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
@@ -612,25 +615,25 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
@@ -668,12 +671,12 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <f>C3-0.5</f>
@@ -712,12 +715,12 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -756,12 +759,12 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="6"/>
@@ -800,12 +803,12 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="6"/>
@@ -844,12 +847,12 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="6"/>
@@ -888,12 +891,12 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="6"/>
@@ -932,12 +935,12 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="6"/>
@@ -976,57 +979,57 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>7260.0000000000009</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="5"/>
+        <v>7260.0000000000009</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>7260.0000000000009</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>10</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="5"/>
-        <v>7260.0000000000009</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" s="5">
         <f t="shared" si="6"/>
         <v>65.5</v>
@@ -1064,12 +1067,12 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="6"/>
@@ -1108,12 +1111,12 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="6"/>
@@ -1152,12 +1155,12 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="6"/>
@@ -1196,12 +1199,12 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="6"/>
@@ -1240,12 +1243,12 @@
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="6"/>
@@ -1284,12 +1287,12 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="6"/>
@@ -1328,12 +1331,12 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="6"/>
@@ -1372,12 +1375,12 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="6"/>
@@ -1416,12 +1419,12 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="6"/>
@@ -1460,12 +1463,12 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="6"/>
@@ -1504,12 +1507,12 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="6"/>
@@ -1548,12 +1551,12 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="6"/>
@@ -1592,12 +1595,12 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="6"/>
@@ -1636,12 +1639,12 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="6"/>
@@ -1680,12 +1683,12 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="6"/>
@@ -1724,12 +1727,12 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
@@ -1768,12 +1771,12 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
@@ -1812,12 +1815,12 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="6"/>
@@ -1856,12 +1859,12 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -1900,12 +1903,12 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="6"/>
@@ -1944,12 +1947,12 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="6"/>
@@ -1988,12 +1991,12 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="6"/>
@@ -2032,12 +2035,12 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="6"/>
@@ -2076,12 +2079,12 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="6"/>
@@ -2120,12 +2123,12 @@
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="6"/>
@@ -2164,12 +2167,12 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="6"/>
@@ -2208,7 +2211,7 @@
       </c>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2222,10 +2225,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3">
         <f>ROUND(SUM(K3:K38), 0)</f>
@@ -2241,10 +2244,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
@@ -2260,10 +2263,10 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
@@ -2279,10 +2282,10 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -161,9 +161,6 @@
     <t>Исламов</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>7</v>
@@ -2228,7 +2228,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3">
         <f>ROUND(SUM(K3:K38), 0)</f>
@@ -2247,7 +2247,7 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
@@ -2266,7 +2266,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
@@ -2285,7 +2285,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk\Telegram Desktop\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,13 +180,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -223,24 +231,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,31 +564,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="11.3984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -615,8 +624,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -657,8 +666,9 @@
         <v>7700.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -701,15 +711,16 @@
         <v>7645.0000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="6">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="7">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="4">
@@ -725,7 +736,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="4">
@@ -733,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="4">
@@ -745,15 +756,16 @@
         <v>7590.0000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
@@ -769,7 +781,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="4">
@@ -777,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="4">
@@ -789,15 +801,16 @@
         <v>7535.0000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
@@ -813,7 +826,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="4">
@@ -821,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="4">
@@ -833,15 +846,16 @@
         <v>7480.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
@@ -857,7 +871,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="4">
@@ -865,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="4">
@@ -877,15 +891,16 @@
         <v>7425.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
@@ -901,7 +916,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="4">
@@ -909,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="4">
@@ -921,15 +936,16 @@
         <v>7370.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
@@ -945,7 +961,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="4">
@@ -953,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="4">
@@ -965,15 +981,16 @@
         <v>7315.0000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
@@ -989,7 +1006,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="4">
@@ -997,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="4">
@@ -1009,15 +1026,16 @@
         <v>7260.0000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
@@ -1033,7 +1051,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="4">
@@ -1041,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="4">
@@ -1053,15 +1071,16 @@
         <v>7215.0000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
@@ -1077,7 +1096,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="4">
@@ -1085,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="4">
@@ -1097,15 +1116,16 @@
         <v>7170.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
@@ -1121,7 +1141,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="4">
@@ -1129,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="4">
@@ -1141,15 +1161,16 @@
         <v>7125.0000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
@@ -1165,7 +1186,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="4">
@@ -1173,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="4">
@@ -1185,15 +1206,16 @@
         <v>7080.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
@@ -1209,7 +1231,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="4">
@@ -1217,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="4">
@@ -1229,15 +1251,16 @@
         <v>7035.0000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
@@ -1253,7 +1276,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="4">
@@ -1261,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="4">
@@ -1273,15 +1296,16 @@
         <v>6990.0000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
@@ -1297,7 +1321,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="4">
@@ -1305,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="4">
@@ -1317,15 +1341,16 @@
         <v>6945.0000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
@@ -1341,7 +1366,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="4">
@@ -1349,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="4">
@@ -1361,15 +1386,16 @@
         <v>6900.0000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
@@ -1385,7 +1411,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="4">
@@ -1393,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="4">
@@ -1405,15 +1431,16 @@
         <v>6855.0000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
@@ -1429,7 +1456,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="4">
@@ -1437,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="4">
@@ -1449,15 +1476,16 @@
         <v>6810.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
@@ -1473,7 +1501,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="4">
@@ -1481,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="4">
@@ -1493,15 +1521,16 @@
         <v>6765.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
@@ -1517,7 +1546,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="4">
@@ -1525,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="4">
@@ -1537,15 +1566,16 @@
         <v>6720.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
@@ -1561,7 +1591,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="4">
@@ -1569,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="4">
@@ -1581,15 +1611,16 @@
         <v>6675.0000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
@@ -1605,7 +1636,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="4">
@@ -1613,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="4">
@@ -1625,15 +1656,16 @@
         <v>6630.0000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
@@ -1649,7 +1681,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="4">
@@ -1657,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="4">
@@ -1669,15 +1701,16 @@
         <v>6585.0000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
@@ -1693,7 +1726,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="4">
@@ -1701,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="4">
@@ -1713,15 +1746,16 @@
         <v>6540.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
@@ -1737,7 +1771,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="4">
@@ -1745,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="4">
@@ -1757,15 +1791,16 @@
         <v>6495.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
@@ -1781,7 +1816,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="4">
@@ -1789,7 +1824,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="4">
@@ -1801,15 +1836,16 @@
         <v>6450.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
@@ -1825,7 +1861,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="4">
@@ -1833,7 +1869,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="4">
@@ -1845,15 +1881,16 @@
         <v>6405.0000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
@@ -1869,7 +1906,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="4">
@@ -1877,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="4">
@@ -1889,15 +1926,16 @@
         <v>6360.0000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
@@ -1913,7 +1951,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="4">
@@ -1921,7 +1959,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="4">
@@ -1933,15 +1971,16 @@
         <v>6315.0000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
@@ -1957,7 +1996,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="4">
@@ -1965,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="4">
@@ -1977,15 +2016,16 @@
         <v>6270.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
@@ -2001,7 +2041,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="4">
@@ -2009,7 +2049,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="4">
@@ -2021,15 +2061,16 @@
         <v>6225.0000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
@@ -2045,7 +2086,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="4">
@@ -2053,7 +2094,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="4">
@@ -2065,19 +2106,20 @@
         <v>3210.0000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E36" s="4">
@@ -2089,7 +2131,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="4">
@@ -2097,7 +2139,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="4">
@@ -2109,19 +2151,20 @@
         <v>3192.5000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55.000000000000007</v>
       </c>
       <c r="E37" s="4">
@@ -2133,7 +2176,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="4">
@@ -2141,7 +2184,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="4">
@@ -2153,19 +2196,20 @@
         <v>3175.0000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55.000000000000007</v>
       </c>
       <c r="E38" s="4">
@@ -2177,7 +2221,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="4">
@@ -2185,7 +2229,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="4">
@@ -2197,7 +2241,7 @@
         <v>3157.5000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +2250,7 @@
         <v>234615</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
@@ -2215,7 +2259,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
@@ -2224,7 +2268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>48</v>
       </c>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Филатов</t>
   </si>
   <si>
-    <t>Осама</t>
-  </si>
-  <si>
     <t>Хазипова</t>
   </si>
   <si>
@@ -116,18 +113,12 @@
     <t>Хакимов</t>
   </si>
   <si>
-    <t>Халимов</t>
-  </si>
-  <si>
     <t>Хафизов</t>
   </si>
   <si>
     <t>Хрунин</t>
   </si>
   <si>
-    <t>Роман</t>
-  </si>
-  <si>
     <t>Шабанов</t>
   </si>
   <si>
@@ -174,6 +165,18 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t>Хабк</t>
+  </si>
+  <si>
+    <t>Халилов</t>
+  </si>
+  <si>
+    <t>Чепурченко</t>
   </si>
 </sst>
 </file>
@@ -564,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -612,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
@@ -621,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -629,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -639,15 +642,13 @@
         <v>110.00000000000001</v>
       </c>
       <c r="E3" s="4">
-        <f xml:space="preserve"> C3*D3</f>
+        <f>C3*D3</f>
         <v>7700.0000000000009</v>
       </c>
       <c r="F3" s="5">
-        <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="5">
-        <f>DATE(2022,9,1)</f>
         <v>44805</v>
       </c>
       <c r="H3" s="4">
@@ -672,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
         <f>C3-0.5</f>
@@ -683,11 +684,10 @@
         <v>110.00000000000001</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E38" si="1" xml:space="preserve"> C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>7645.0000000000009</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F38" si="2">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G4" s="5">
@@ -695,7 +695,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -703,24 +703,24 @@
         <v>10</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J38" si="4">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K38" si="5">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>7645.0000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="6">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C38" si="7">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="4">
@@ -732,40 +732,39 @@
         <v>7590.0000000000009</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I38" si="9">$I$3</f>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7590.0000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
@@ -777,40 +776,39 @@
         <v>7535.0000000000009</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7535.0000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
@@ -822,40 +820,39 @@
         <v>7480.0000000000009</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7480.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
@@ -867,40 +864,39 @@
         <v>7425.0000000000009</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7425.0000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
@@ -912,40 +908,39 @@
         <v>7370.0000000000009</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7370.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
@@ -957,40 +952,39 @@
         <v>7315.0000000000009</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7315.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
@@ -1002,40 +996,39 @@
         <v>7260.0000000000009</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7260.0000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
@@ -1047,40 +1040,39 @@
         <v>7205.0000000000009</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7215.0000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
@@ -1092,40 +1084,39 @@
         <v>7150.0000000000009</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7170.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
@@ -1137,40 +1128,39 @@
         <v>7095.0000000000009</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7125.0000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
@@ -1182,40 +1172,39 @@
         <v>7040.0000000000009</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7080.0000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
@@ -1227,40 +1216,39 @@
         <v>6985.0000000000009</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7035.0000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
@@ -1272,40 +1260,39 @@
         <v>6930.0000000000009</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6990.0000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
@@ -1317,40 +1304,39 @@
         <v>6875.0000000000009</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6945.0000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
@@ -1362,40 +1348,39 @@
         <v>6820.0000000000009</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6900.0000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
@@ -1407,40 +1392,39 @@
         <v>6765.0000000000009</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6855.0000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
@@ -1452,40 +1436,39 @@
         <v>6710.0000000000009</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6810.0000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
@@ -1497,40 +1480,39 @@
         <v>6655.0000000000009</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6765.0000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
@@ -1542,40 +1524,39 @@
         <v>6600.0000000000009</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6720.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
@@ -1587,40 +1568,39 @@
         <v>6545.0000000000009</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6675.0000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
@@ -1632,40 +1612,39 @@
         <v>6490.0000000000009</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6630.0000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
@@ -1677,40 +1656,39 @@
         <v>6435.0000000000009</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6585.0000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
@@ -1722,40 +1700,39 @@
         <v>6380.0000000000009</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6540.0000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
@@ -1767,40 +1744,39 @@
         <v>6325.0000000000009</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6495.0000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
@@ -1812,40 +1788,39 @@
         <v>6270.0000000000009</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6450.0000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
@@ -1857,40 +1832,39 @@
         <v>6215.0000000000009</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6405.0000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
@@ -1902,40 +1876,39 @@
         <v>6160.0000000000009</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6360.0000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
@@ -1947,40 +1920,39 @@
         <v>6105.0000000000009</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6315.0000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
@@ -1992,40 +1964,39 @@
         <v>6050.0000000000009</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6270.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
@@ -2037,44 +2008,43 @@
         <v>5995.0000000000009</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6225.0000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f>$D$3/2</f>
+        <f>$A$1*1.1/2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E35" s="4">
@@ -2082,44 +2052,43 @@
         <v>2970.0000000000005</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3210.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E36" s="4">
@@ -2127,44 +2096,43 @@
         <v>2942.5000000000005</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3192.5000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55.000000000000007</v>
       </c>
       <c r="E37" s="4">
@@ -2172,44 +2140,43 @@
         <v>2915.0000000000005</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3175.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55.000000000000007</v>
       </c>
       <c r="E38" s="4">
@@ -2217,42 +2184,41 @@
         <v>2887.5000000000005</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3157.5000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
-        <f>INT(SUM(K3:K38))</f>
+        <f>ROUND(SUM(K3:K38), 0)</f>
         <v>234615</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2261,7 +2227,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2270,7 +2236,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -146,9 +146,6 @@
     <t>Исламов</t>
   </si>
   <si>
-    <t>Фамилия квартиросъёмщика</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Чепурченко</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъемщика</t>
   </si>
 </sst>
 </file>
@@ -567,23 +567,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.296875" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
@@ -597,16 +595,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -632,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -1685,7 +1683,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="6"/>
@@ -1861,7 +1859,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="6"/>
@@ -1993,7 +1991,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="6"/>
@@ -2209,7 +2207,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2">
         <f>ROUND(SUM(K3:K38), 0)</f>
@@ -2218,7 +2216,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2227,7 +2225,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2236,7 +2234,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -176,14 +176,14 @@
     <t>Чепурченко</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +213,11 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,9 +245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -567,22 +572,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="8"/>
+    <col min="1" max="1" width="11.3984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -590,38 +597,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -629,38 +636,38 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>$A$1*1.1</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>7700.0000000000009</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f>E3+J3</f>
         <v>7700.0000000000009</v>
       </c>
@@ -670,41 +677,41 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>7645.0000000000009</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f>$I$3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>7645.0000000000009</v>
       </c>
@@ -714,41 +721,41 @@
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>7590.0000000000009</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="4"/>
         <v>7590.0000000000009</v>
       </c>
@@ -758,41 +765,41 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>7535.0000000000009</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="4"/>
         <v>7535.0000000000009</v>
       </c>
@@ -802,41 +809,41 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>7480.0000000000009</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="4"/>
         <v>7480.0000000000009</v>
       </c>
@@ -846,41 +853,41 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>7425.0000000000009</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="4"/>
         <v>7425.0000000000009</v>
       </c>
@@ -890,41 +897,41 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>7370.0000000000009</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="I9" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="4"/>
         <v>7370.0000000000009</v>
       </c>
@@ -934,41 +941,41 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>7315.0000000000009</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="7"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>7315.0000000000009</v>
       </c>
@@ -978,41 +985,41 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>7260.0000000000009</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I11" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="4"/>
         <v>7260.0000000000009</v>
       </c>
@@ -1022,41 +1029,41 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>7205.0000000000009</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="I12" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
         <v>7215.0000000000009</v>
       </c>
@@ -1066,41 +1073,41 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>7150.0000000000009</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="I13" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="4"/>
         <v>7170.0000000000009</v>
       </c>
@@ -1110,41 +1117,41 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>7095.0000000000009</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="4"/>
         <v>7125.0000000000009</v>
       </c>
@@ -1154,41 +1161,41 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>7040.0000000000009</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="4"/>
         <v>7080.0000000000009</v>
       </c>
@@ -1198,41 +1205,41 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>6985.0000000000009</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
         <v>7035.0000000000009</v>
       </c>
@@ -1242,41 +1249,41 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>6930.0000000000009</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="I17" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="4"/>
         <v>6990.0000000000009</v>
       </c>
@@ -1286,41 +1293,41 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>6875.0000000000009</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="I18" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="4"/>
         <v>6945.0000000000009</v>
       </c>
@@ -1330,41 +1337,41 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>6820.0000000000009</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="I19" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
         <v>6900.0000000000009</v>
       </c>
@@ -1374,41 +1381,41 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>6765.0000000000009</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="I20" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
         <v>6855.0000000000009</v>
       </c>
@@ -1418,41 +1425,41 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>6710.0000000000009</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>6810.0000000000009</v>
       </c>
@@ -1462,41 +1469,41 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>6655.0000000000009</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="I22" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="4"/>
         <v>6765.0000000000009</v>
       </c>
@@ -1506,41 +1513,41 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>6600.0000000000009</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I23" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="4"/>
         <v>6720.0000000000009</v>
       </c>
@@ -1550,41 +1557,41 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>6545.0000000000009</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="I24" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="4"/>
         <v>6675.0000000000009</v>
       </c>
@@ -1594,41 +1601,41 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>6490.0000000000009</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="I25" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="4"/>
         <v>6630.0000000000009</v>
       </c>
@@ -1638,41 +1645,41 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>6435.0000000000009</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="I26" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="4"/>
         <v>6585.0000000000009</v>
       </c>
@@ -1682,41 +1689,41 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>6380.0000000000009</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="I27" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="4"/>
         <v>6540.0000000000009</v>
       </c>
@@ -1726,41 +1733,41 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>6325.0000000000009</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="I28" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="4"/>
         <v>6495.0000000000009</v>
       </c>
@@ -1770,41 +1777,41 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>6270.0000000000009</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="4"/>
         <v>6450.0000000000009</v>
       </c>
@@ -1814,41 +1821,41 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>6215.0000000000009</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="4"/>
         <v>6405.0000000000009</v>
       </c>
@@ -1858,41 +1865,41 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>6160.0000000000009</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="I31" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="4"/>
         <v>6360.0000000000009</v>
       </c>
@@ -1902,41 +1909,41 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>6105.0000000000009</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="I32" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="4"/>
         <v>6315.0000000000009</v>
       </c>
@@ -1946,41 +1953,41 @@
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>6050.0000000000009</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="I33" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="4"/>
         <v>6270.0000000000009</v>
       </c>
@@ -1990,41 +1997,41 @@
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>5995.0000000000009</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="4">
+      <c r="I34" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
         <v>6225.0000000000009</v>
       </c>
@@ -2034,41 +2041,41 @@
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <f>$A$1*1.1/2</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="1"/>
         <v>2970.0000000000005</v>
       </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="4">
+      <c r="I35" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="4"/>
         <v>3210.0000000000005</v>
       </c>
@@ -2078,41 +2085,41 @@
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>2942.5000000000005</v>
       </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="I36" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <f t="shared" si="4"/>
         <v>3192.5000000000005</v>
       </c>
@@ -2122,41 +2129,41 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <f t="shared" si="9"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>2915.0000000000005</v>
       </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="4">
+      <c r="I37" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <f t="shared" si="4"/>
         <v>3175.0000000000005</v>
       </c>
@@ -2166,41 +2173,41 @@
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <f t="shared" si="9"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="1"/>
         <v>2887.5000000000005</v>
       </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="I38" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>3157.5000000000005</v>
       </c>
@@ -2224,7 +2231,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="2">
@@ -2233,7 +2240,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="2">

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -38,9 +38,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -177,13 +174,16 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,11 +212,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,7 +248,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +568,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +581,7 @@
     <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.796875" style="7"/>
@@ -602,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>1</v>
@@ -620,16 +615,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -637,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -678,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <f>C3-0.5</f>
@@ -722,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -766,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="6"/>
@@ -810,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="6"/>
@@ -854,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="6"/>
@@ -898,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="6"/>
@@ -942,7 +937,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="6"/>
@@ -986,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="6"/>
@@ -1030,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="6"/>
@@ -1074,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="6"/>
@@ -1118,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="6"/>
@@ -1162,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="6"/>
@@ -1206,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="6"/>
@@ -1250,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="6"/>
@@ -1294,7 +1289,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="6"/>
@@ -1338,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="6"/>
@@ -1382,7 +1377,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="6"/>
@@ -1426,7 +1421,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="6"/>
@@ -1470,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="6"/>
@@ -1514,7 +1509,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="6"/>
@@ -1558,7 +1553,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="6"/>
@@ -1602,7 +1597,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
@@ -1646,7 +1641,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
@@ -1690,7 +1685,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="6"/>
@@ -1734,7 +1729,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="6"/>
@@ -1778,7 +1773,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="6"/>
@@ -1822,7 +1817,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="6"/>
@@ -1866,7 +1861,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="6"/>
@@ -1910,7 +1905,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="6"/>
@@ -1954,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="6"/>
@@ -1998,7 +1993,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="6"/>
@@ -2042,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="6"/>
@@ -2086,7 +2081,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="6"/>
@@ -2130,7 +2125,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="6"/>
@@ -2174,7 +2169,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="6"/>
@@ -2214,7 +2209,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2">
         <f>ROUND(SUM(K3:K38), 0)</f>
@@ -2223,7 +2218,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2232,7 +2227,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2241,7 +2236,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -143,9 +143,6 @@
     <t>Исламов</t>
   </si>
   <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -176,7 +173,10 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,7 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,7 +567,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +580,7 @@
     <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.796875" style="7"/>
@@ -592,38 +591,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -632,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -1685,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="6"/>
@@ -1861,7 +1860,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="6"/>
@@ -1993,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="6"/>
@@ -2209,7 +2208,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2">
         <f>ROUND(SUM(K3:K38), 0)</f>
@@ -2218,7 +2217,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2227,7 +2226,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2236,7 +2235,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -176,14 +176,14 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб./кв.м</t>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +213,11 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,7 +252,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,7 +575,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,9 +595,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="8">
         <v>100</v>
       </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -176,7 +176,7 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб./кв.м.</t>
+    <t>Тариф</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
     <col min="1" max="1" width="11.3984375" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.796875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" style="7" bestFit="1" customWidth="1"/>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -176,7 +176,7 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Тариф</t>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
     <col min="1" max="1" width="11.3984375" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.796875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" style="7" bestFit="1" customWidth="1"/>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -173,10 +173,10 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб./день</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +588,7 @@
     <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.796875" style="7"/>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>39</v>
@@ -635,7 +635,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>4</v>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -176,7 +176,7 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб./день</t>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,6 +646,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <f>$A$1-99</f>
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -646,7 +646,6 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f>$A$1-99</f>
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -239,11 +239,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -256,7 +253,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,1687 +584,1687 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="7"/>
+    <col min="1" max="1" width="11.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8">
+      <c r="A1" s="9">
         <v>100</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>$A$1*1.1</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>7700.0000000000009</v>
       </c>
-      <c r="F3" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f>E3+J3</f>
         <v>7700.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>110.00000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>7645.0000000000009</v>
       </c>
-      <c r="F4" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>$I$3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>7645.0000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="12">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>7590.0000000000009</v>
       </c>
-      <c r="F5" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f t="shared" si="4"/>
         <v>7590.0000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>7535.0000000000009</v>
       </c>
-      <c r="F6" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
         <v>7535.0000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>7480.0000000000009</v>
       </c>
-      <c r="F7" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I7" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f t="shared" si="4"/>
         <v>7480.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>7425.0000000000009</v>
       </c>
-      <c r="F8" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f t="shared" si="4"/>
         <v>7425.0000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>7370.0000000000009</v>
       </c>
-      <c r="F9" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
         <v>7370.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>7315.0000000000009</v>
       </c>
-      <c r="F10" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="7"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
         <v>7315.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="12">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>7260.0000000000009</v>
       </c>
-      <c r="F11" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="4"/>
         <v>7260.0000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>7205.0000000000009</v>
       </c>
-      <c r="F12" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="I12" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="4"/>
         <v>7215.0000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="12">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>7150.0000000000009</v>
       </c>
-      <c r="F13" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
         <v>7170.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>7095.0000000000009</v>
       </c>
-      <c r="F14" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="4"/>
         <v>7125.0000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="12">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>7040.0000000000009</v>
       </c>
-      <c r="F15" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="4"/>
         <v>7080.0000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>6985.0000000000009</v>
       </c>
-      <c r="F16" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="4"/>
         <v>7035.0000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>6930.0000000000009</v>
       </c>
-      <c r="F17" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="4"/>
         <v>6990.0000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>6875.0000000000009</v>
       </c>
-      <c r="F18" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f t="shared" si="4"/>
         <v>6945.0000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>6820.0000000000009</v>
       </c>
-      <c r="F19" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <f t="shared" si="4"/>
         <v>6900.0000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>6765.0000000000009</v>
       </c>
-      <c r="F20" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f t="shared" si="4"/>
         <v>6855.0000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="12">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>6710.0000000000009</v>
       </c>
-      <c r="F21" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <f t="shared" si="4"/>
         <v>6810.0000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>6655.0000000000009</v>
       </c>
-      <c r="F22" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <f t="shared" si="4"/>
         <v>6765.0000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>6600.0000000000009</v>
       </c>
-      <c r="F23" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="I23" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <f t="shared" si="4"/>
         <v>6720.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>6545.0000000000009</v>
       </c>
-      <c r="F24" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <f t="shared" si="4"/>
         <v>6675.0000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="12">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>6490.0000000000009</v>
       </c>
-      <c r="F25" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <f t="shared" si="4"/>
         <v>6630.0000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="12">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>6435.0000000000009</v>
       </c>
-      <c r="F26" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f t="shared" si="4"/>
         <v>6585.0000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="12">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>6380.0000000000009</v>
       </c>
-      <c r="F27" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" si="4"/>
         <v>6540.0000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>6325.0000000000009</v>
       </c>
-      <c r="F28" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="4"/>
         <v>6495.0000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>6270.0000000000009</v>
       </c>
-      <c r="F29" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <f t="shared" si="4"/>
         <v>6450.0000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>6215.0000000000009</v>
       </c>
-      <c r="F30" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <f t="shared" si="4"/>
         <v>6405.0000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>6160.0000000000009</v>
       </c>
-      <c r="F31" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <f t="shared" si="4"/>
         <v>6360.0000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="12">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>6105.0000000000009</v>
       </c>
-      <c r="F32" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <f t="shared" si="4"/>
         <v>6315.0000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="12">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>6050.0000000000009</v>
       </c>
-      <c r="F33" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <f t="shared" si="4"/>
         <v>6270.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="12">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>110.00000000000001</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>5995.0000000000009</v>
       </c>
-      <c r="F34" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <f t="shared" si="4"/>
         <v>6225.0000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="12">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f>$A$1*1.1/2</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>2970.0000000000005</v>
       </c>
-      <c r="F35" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <f t="shared" si="4"/>
         <v>3210.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="12">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>2942.5000000000005</v>
       </c>
-      <c r="F36" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <f t="shared" si="4"/>
         <v>3192.5000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="12">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <f t="shared" si="9"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>2915.0000000000005</v>
       </c>
-      <c r="F37" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <f t="shared" si="4"/>
         <v>3175.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="12">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <f t="shared" si="9"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>2887.5000000000005</v>
       </c>
-      <c r="F38" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="3">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <f t="shared" si="4"/>
         <v>3157.5000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <f>ROUND(SUM(K3:K38), 0)</f>
         <v>234615</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>7700.0000000000009</v>
       </c>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -152,9 +152,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>39</v>
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -1711,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
@@ -1887,7 +1887,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
@@ -2019,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
         <f>ROUND(SUM(K3:K38), 0)</f>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -137,9 +137,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Исламов</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>4</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="6"/>
@@ -1711,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
@@ -1887,7 +1887,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
@@ -2019,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
@@ -2151,7 +2151,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
@@ -2195,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <f>ROUND(SUM(K3:K38), 0)</f>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -583,27 +583,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="11.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9">
         <v>100</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
@@ -693,7 +693,7 @@
         <v>7700.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
@@ -714,6 +714,7 @@
         <v>7645.0000000000009</v>
       </c>
       <c r="F4" s="3">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
@@ -729,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -737,7 +738,7 @@
         <v>7645.0000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -758,10 +759,11 @@
         <v>7590.0000000000009</v>
       </c>
       <c r="F5" s="3">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -769,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -781,7 +783,7 @@
         <v>7590.0000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -802,10 +804,11 @@
         <v>7535.0000000000009</v>
       </c>
       <c r="F6" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -825,7 +828,7 @@
         <v>7535.0000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -846,10 +849,11 @@
         <v>7480.0000000000009</v>
       </c>
       <c r="F7" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -857,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -869,7 +873,7 @@
         <v>7480.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -890,10 +894,11 @@
         <v>7425.0000000000009</v>
       </c>
       <c r="F8" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -901,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -913,7 +918,7 @@
         <v>7425.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -934,10 +939,11 @@
         <v>7370.0000000000009</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -957,7 +963,7 @@
         <v>7370.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -978,10 +984,11 @@
         <v>7315.0000000000009</v>
       </c>
       <c r="F10" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -989,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1001,7 +1008,7 @@
         <v>7315.0000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1022,10 +1029,11 @@
         <v>7260.0000000000009</v>
       </c>
       <c r="F11" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1033,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1045,7 +1053,7 @@
         <v>7260.0000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1066,10 +1074,11 @@
         <v>7205.0000000000009</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1077,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1089,7 +1098,7 @@
         <v>7215.0000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1110,10 +1119,11 @@
         <v>7150.0000000000009</v>
       </c>
       <c r="F13" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1121,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1133,7 +1143,7 @@
         <v>7170.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1154,10 +1164,11 @@
         <v>7095.0000000000009</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1165,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1177,7 +1188,7 @@
         <v>7125.0000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1198,10 +1209,11 @@
         <v>7040.0000000000009</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1209,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1221,7 +1233,7 @@
         <v>7080.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1242,10 +1254,11 @@
         <v>6985.0000000000009</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1253,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1265,7 +1278,7 @@
         <v>7035.0000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1286,10 +1299,11 @@
         <v>6930.0000000000009</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1297,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1309,7 +1323,7 @@
         <v>6990.0000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1330,10 +1344,11 @@
         <v>6875.0000000000009</v>
       </c>
       <c r="F18" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1341,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1353,7 +1368,7 @@
         <v>6945.0000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1374,10 +1389,11 @@
         <v>6820.0000000000009</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1385,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1397,7 +1413,7 @@
         <v>6900.0000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1418,10 +1434,11 @@
         <v>6765.0000000000009</v>
       </c>
       <c r="F20" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1429,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1441,7 +1458,7 @@
         <v>6855.0000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1462,10 +1479,11 @@
         <v>6710.0000000000009</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1473,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1485,7 +1503,7 @@
         <v>6810.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1506,10 +1524,11 @@
         <v>6655.0000000000009</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1517,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1529,7 +1548,7 @@
         <v>6765.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1550,10 +1569,11 @@
         <v>6600.0000000000009</v>
       </c>
       <c r="F23" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1561,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1573,7 +1593,7 @@
         <v>6720.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1594,10 +1614,11 @@
         <v>6545.0000000000009</v>
       </c>
       <c r="F24" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1605,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1617,7 +1638,7 @@
         <v>6675.0000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1638,10 +1659,11 @@
         <v>6490.0000000000009</v>
       </c>
       <c r="F25" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1649,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1661,7 +1683,7 @@
         <v>6630.0000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -1682,10 +1704,11 @@
         <v>6435.0000000000009</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1693,7 +1716,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1705,7 +1728,7 @@
         <v>6585.0000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1726,10 +1749,11 @@
         <v>6380.0000000000009</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1737,7 +1761,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1749,7 +1773,7 @@
         <v>6540.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -1770,10 +1794,11 @@
         <v>6325.0000000000009</v>
       </c>
       <c r="F28" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1781,7 +1806,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1793,7 +1818,7 @@
         <v>6495.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -1814,10 +1839,11 @@
         <v>6270.0000000000009</v>
       </c>
       <c r="F29" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1825,7 +1851,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1837,7 +1863,7 @@
         <v>6450.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -1858,10 +1884,11 @@
         <v>6215.0000000000009</v>
       </c>
       <c r="F30" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1869,7 +1896,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1881,7 +1908,7 @@
         <v>6405.0000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1902,10 +1929,11 @@
         <v>6160.0000000000009</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1913,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1925,7 +1953,7 @@
         <v>6360.0000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1946,10 +1974,11 @@
         <v>6105.0000000000009</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -1957,7 +1986,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1969,7 +1998,7 @@
         <v>6315.0000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -1990,10 +2019,11 @@
         <v>6050.0000000000009</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2001,7 +2031,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2013,7 +2043,7 @@
         <v>6270.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2034,10 +2064,11 @@
         <v>5995.0000000000009</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2045,7 +2076,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2057,7 +2088,7 @@
         <v>6225.0000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2070,7 +2101,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>$A$1*1.1/2</f>
+        <f>$A$1*1.1*0.5</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E35" s="2">
@@ -2078,10 +2109,11 @@
         <v>2970.0000000000005</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2089,7 +2121,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2101,7 +2133,7 @@
         <v>3210.0000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2114,7 +2146,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1*0.5</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E36" s="2">
@@ -2122,10 +2154,11 @@
         <v>2942.5000000000005</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2133,7 +2166,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2145,7 +2178,7 @@
         <v>3192.5000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2158,7 +2191,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55.000000000000007</v>
       </c>
       <c r="E37" s="2">
@@ -2166,10 +2199,11 @@
         <v>2915.0000000000005</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2177,7 +2211,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2189,7 +2223,7 @@
         <v>3175.0000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2202,7 +2236,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55.000000000000007</v>
       </c>
       <c r="E38" s="2">
@@ -2210,10 +2244,11 @@
         <v>2887.5000000000005</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2221,7 +2256,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2233,16 +2268,16 @@
         <v>3157.5000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUND(SUM(K3:K38), 0)</f>
+        <f>INT(SUM(K3:K38))</f>
         <v>234615</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2251,7 +2286,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>49</v>
       </c>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -267,6 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -583,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -2101,7 +2102,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>$A$1*1.1*0.5</f>
+        <f>0.5*$A$1*1.1</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E35" s="2">
@@ -2146,7 +2147,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1*0.5</f>
+        <f t="shared" ref="D36:D38" si="10">0.5*$A$1*1.1</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E36" s="2">
@@ -2272,8 +2273,8 @@
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1">
-        <f>INT(SUM(K3:K38))</f>
+      <c r="C40" s="13">
+        <f>ROUND(SUM(K3:K38),0)</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="6"/>
+    <col min="1" max="1" width="11.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9">
         <v>100</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>7700.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
@@ -739,7 +739,7 @@
         <v>7645.0000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -784,7 +784,7 @@
         <v>7590.0000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -829,7 +829,7 @@
         <v>7535.0000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -874,7 +874,7 @@
         <v>7480.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -919,7 +919,7 @@
         <v>7425.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>7370.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>7315.0000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1054,7 +1054,7 @@
         <v>7260.0000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>7215.0000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>7170.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1189,7 +1189,7 @@
         <v>7125.0000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1234,7 +1234,7 @@
         <v>7080.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1279,7 +1279,7 @@
         <v>7035.0000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1324,7 +1324,7 @@
         <v>6990.0000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1369,7 +1369,7 @@
         <v>6945.0000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1414,7 +1414,7 @@
         <v>6900.0000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1459,7 +1459,7 @@
         <v>6855.0000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1504,7 +1504,7 @@
         <v>6810.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1549,7 +1549,7 @@
         <v>6765.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1594,7 +1594,7 @@
         <v>6720.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1639,7 +1639,7 @@
         <v>6675.0000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1684,7 +1684,7 @@
         <v>6630.0000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -1729,7 +1729,7 @@
         <v>6585.0000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1774,7 +1774,7 @@
         <v>6540.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -1819,7 +1819,7 @@
         <v>6495.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -1864,7 +1864,7 @@
         <v>6450.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -1909,7 +1909,7 @@
         <v>6405.0000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1954,7 +1954,7 @@
         <v>6360.0000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1999,7 +1999,7 @@
         <v>6315.0000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -2044,7 +2044,7 @@
         <v>6270.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2089,7 +2089,7 @@
         <v>6225.0000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2106,7 +2106,7 @@
         <v>55.000000000000007</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f>C35*D35</f>
         <v>2970.0000000000005</v>
       </c>
       <c r="F35" s="3">
@@ -2134,7 +2134,7 @@
         <v>3210.0000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2179,7 +2179,7 @@
         <v>3192.5000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2224,7 +2224,7 @@
         <v>3175.0000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2269,16 +2269,16 @@
         <v>3157.5000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>ROUND(SUM(K3:K38),0)</f>
-        <v>234615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM(K3:K38)</f>
+        <v>234615.00000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>49</v>
       </c>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,7 +2102,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>0.5*$A$1*1.1</f>
+        <f>D3/2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E35" s="2">
@@ -2147,7 +2147,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">0.5*$A$1*1.1</f>
+        <f>D3/2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E36" s="2">
@@ -2192,7 +2192,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E37" s="2">
@@ -2237,7 +2237,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>55.000000000000007</v>
       </c>
       <c r="E38" s="2">

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ип\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="6"/>
+    <col min="1" max="1" width="11.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9">
         <v>100</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>7700.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
@@ -739,7 +739,7 @@
         <v>7645.0000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -784,7 +784,7 @@
         <v>7590.0000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -829,7 +829,7 @@
         <v>7535.0000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -874,7 +874,7 @@
         <v>7480.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -919,7 +919,7 @@
         <v>7425.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>7370.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>7315.0000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1054,7 +1054,7 @@
         <v>7260.0000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>7215.0000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>7170.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1189,7 +1189,7 @@
         <v>7125.0000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1234,7 +1234,7 @@
         <v>7080.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1279,7 +1279,7 @@
         <v>7035.0000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1324,7 +1324,7 @@
         <v>6990.0000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1369,7 +1369,7 @@
         <v>6945.0000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1414,7 +1414,7 @@
         <v>6900.0000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1459,7 +1459,7 @@
         <v>6855.0000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1504,7 +1504,7 @@
         <v>6810.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1549,7 +1549,7 @@
         <v>6765.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1594,7 +1594,7 @@
         <v>6720.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1639,7 +1639,7 @@
         <v>6675.0000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1684,7 +1684,7 @@
         <v>6630.0000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -1729,7 +1729,7 @@
         <v>6585.0000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1774,7 +1774,7 @@
         <v>6540.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -1819,7 +1819,7 @@
         <v>6495.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -1864,7 +1864,7 @@
         <v>6450.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -1909,7 +1909,7 @@
         <v>6405.0000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1954,7 +1954,7 @@
         <v>6360.0000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1999,7 +1999,7 @@
         <v>6315.0000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -2044,7 +2044,7 @@
         <v>6270.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2089,7 +2089,7 @@
         <v>6225.0000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2134,7 +2134,7 @@
         <v>3210.0000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2179,7 +2179,7 @@
         <v>3192.5000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2224,7 +2224,7 @@
         <v>3175.0000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2269,16 +2269,16 @@
         <v>3157.5000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>SUM(K3:K38)</f>
-        <v>234615.00000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <f>ROUNDDOWN(SUM(K3:K38), 0)</f>
+        <v>234615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>49</v>
       </c>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ип\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15012" windowHeight="8088"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -584,27 +584,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="6"/>
+    <col min="1" max="1" width="11.3984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9">
         <v>100</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>7700.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
@@ -739,7 +739,7 @@
         <v>7645.0000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
@@ -784,7 +784,7 @@
         <v>7590.0000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -829,7 +829,7 @@
         <v>7535.0000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -874,7 +874,7 @@
         <v>7480.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -919,7 +919,7 @@
         <v>7425.0000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>7370.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>7315.0000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1054,7 +1054,7 @@
         <v>7260.0000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>7215.0000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>7170.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1189,7 +1189,7 @@
         <v>7125.0000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1234,7 +1234,7 @@
         <v>7080.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -1279,7 +1279,7 @@
         <v>7035.0000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1324,7 +1324,7 @@
         <v>6990.0000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -1369,7 +1369,7 @@
         <v>6945.0000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -1414,7 +1414,7 @@
         <v>6900.0000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -1459,7 +1459,7 @@
         <v>6855.0000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -1504,7 +1504,7 @@
         <v>6810.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1549,7 +1549,7 @@
         <v>6765.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -1594,7 +1594,7 @@
         <v>6720.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -1639,7 +1639,7 @@
         <v>6675.0000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -1684,7 +1684,7 @@
         <v>6630.0000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -1729,7 +1729,7 @@
         <v>6585.0000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1774,7 +1774,7 @@
         <v>6540.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -1819,7 +1819,7 @@
         <v>6495.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <f t="shared" si="5"/>
         <v>27</v>
@@ -1864,7 +1864,7 @@
         <v>6450.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -1909,7 +1909,7 @@
         <v>6405.0000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -1954,7 +1954,7 @@
         <v>6360.0000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1999,7 +1999,7 @@
         <v>6315.0000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -2044,7 +2044,7 @@
         <v>6270.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -2089,7 +2089,7 @@
         <v>6225.0000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -2134,7 +2134,7 @@
         <v>3210.0000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -2179,7 +2179,7 @@
         <v>3192.5000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -2224,7 +2224,7 @@
         <v>3175.0000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <f t="shared" si="5"/>
         <v>36</v>
@@ -2269,16 +2269,16 @@
         <v>3157.5000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>ROUNDDOWN(SUM(K3:K38), 0)</f>
+        <f>ROUNDUP(SUM(K3:K38), 0)</f>
         <v>234615</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>49</v>
       </c>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>ROUNDUP(SUM(K3:K38), 0)</f>
+        <f>MROUND(SUM(K3:K38), 1)</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>MROUND(SUM(K3:K38), 1)</f>
+        <f>TRUNC(SUM(K3:K38))</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>TRUNC(SUM(K3:K38))</f>
+        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
+        <f>_xlfn.CEILING.MATH((SUM(K3:K38)))</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>_xlfn.CEILING.MATH((SUM(K3:K38)))</f>
+        <f>CEILING((SUM(K3:K38)), 1)</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>CEILING((SUM(K3:K38)), 1)</f>
+        <f>FLOOR((SUM(K3:K38)), 1)</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>FLOOR((SUM(K3:K38)), 1)</f>
+        <f>FLOOR(SUM(K3:K38), 1)</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15012" windowHeight="8088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5484"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13">
-        <f>FLOOR(SUM(K3:K38), 1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>234615</v>
       </c>
     </row>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -584,9 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/LR3/table_1_100.xlsx
+++ b/LR3/table_1_100.xlsx
@@ -584,7 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
